--- a/0_1_Output_Data/5_ifoCAST_error_series_GVA_last_rep_since_2021/ifoCAst_errors_last_rep_first_since_2021_GVA.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_GVA_last_rep_since_2021/ifoCAst_errors_last_rep_first_since_2021_GVA.xlsx
@@ -590,6 +590,9 @@
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B20">
+        <v>0.2651053283564908</v>
+      </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
